--- a/config_4.6/game_module_config.xlsx
+++ b/config_4.6/game_module_config.xlsx
@@ -4975,10 +4975,10 @@
   <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6907,13 +6907,13 @@
         <v>215</v>
       </c>
       <c r="E74" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="50">
         <v>44298</v>

--- a/config_4.6/game_module_config.xlsx
+++ b/config_4.6/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1034">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4316,6 +4316,34 @@
   </si>
   <si>
     <t>2021年4月16日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/ act_001_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4944,13 +4972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E334" sqref="E334"/>
+      <selection pane="bottomRight" activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13436,6 +13464,55 @@
       </c>
       <c r="I333" s="14" t="s">
         <v>1026</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="15">
+        <v>334</v>
+      </c>
+      <c r="B335" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C335" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E335" s="16">
+        <v>1</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.6/game_module_config.xlsx
+++ b/config_4.6/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1034">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4632,9 +4632,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4694,6 +4691,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4975,16 +4975,16 @@
   <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D337" sqref="D337"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -4998,7 +4998,7 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>974</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5469,7 +5469,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -6403,7 +6403,7 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>973</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6429,7 +6429,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6536,7 +6536,7 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>971</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -6551,7 +6551,7 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="33" t="s">
+      <c r="I60" s="32" t="s">
         <v>972</v>
       </c>
     </row>
@@ -6907,16 +6907,16 @@
         <v>215</v>
       </c>
       <c r="E74" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="29">
-        <v>0</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>641</v>
+        <v>1</v>
+      </c>
+      <c r="I74" s="50">
+        <v>44298</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6949,16 +6949,16 @@
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="30">
         <v>0</v>
       </c>
       <c r="F76" s="22">
@@ -6967,7 +6967,7 @@
       <c r="G76" s="22">
         <v>1</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="31" t="s">
         <v>955</v>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="41" t="s">
+      <c r="I119" s="40" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>520</v>
       </c>
       <c r="C183" t="s">
@@ -9732,7 +9732,7 @@
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>522</v>
       </c>
       <c r="C184" t="s">
@@ -9755,7 +9755,7 @@
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>524</v>
       </c>
       <c r="C185" t="s">
@@ -9778,7 +9778,7 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -9801,7 +9801,7 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>528</v>
       </c>
       <c r="C187" t="s">
@@ -9824,7 +9824,7 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C188" t="s">
@@ -9847,7 +9847,7 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>532</v>
       </c>
       <c r="C189" t="s">
@@ -9870,7 +9870,7 @@
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>534</v>
       </c>
       <c r="C190" t="s">
@@ -9893,7 +9893,7 @@
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C191" t="s">
@@ -9916,7 +9916,7 @@
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>538</v>
       </c>
       <c r="C192" t="s">
@@ -9939,7 +9939,7 @@
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>540</v>
       </c>
       <c r="C193" t="s">
@@ -9962,7 +9962,7 @@
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>542</v>
       </c>
       <c r="C194" t="s">
@@ -9985,7 +9985,7 @@
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>544</v>
       </c>
       <c r="C195" t="s">
@@ -10008,7 +10008,7 @@
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>546</v>
       </c>
       <c r="C196" t="s">
@@ -10031,7 +10031,7 @@
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>548</v>
       </c>
       <c r="C197" t="s">
@@ -10054,7 +10054,7 @@
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>550</v>
       </c>
       <c r="C198" t="s">
@@ -10077,7 +10077,7 @@
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C199" t="s">
@@ -10100,7 +10100,7 @@
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="37" t="s">
         <v>554</v>
       </c>
       <c r="C200" t="s">
@@ -10123,7 +10123,7 @@
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>556</v>
       </c>
       <c r="C201" t="s">
@@ -10146,7 +10146,7 @@
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="37" t="s">
         <v>558</v>
       </c>
       <c r="C202" t="s">
@@ -10169,7 +10169,7 @@
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="37" t="s">
         <v>560</v>
       </c>
       <c r="C203" t="s">
@@ -10192,7 +10192,7 @@
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="37" t="s">
         <v>604</v>
       </c>
       <c r="C204" t="s">
@@ -10218,7 +10218,7 @@
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C205" t="s">
@@ -10244,7 +10244,7 @@
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="37" t="s">
         <v>608</v>
       </c>
       <c r="C206" t="s">
@@ -10270,7 +10270,7 @@
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>565</v>
       </c>
       <c r="C207" t="s">
@@ -10293,7 +10293,7 @@
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="37" t="s">
         <v>567</v>
       </c>
       <c r="C208" t="s">
@@ -10316,7 +10316,7 @@
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="37" t="s">
         <v>569</v>
       </c>
       <c r="C209" t="s">
@@ -10339,7 +10339,7 @@
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="37" t="s">
         <v>571</v>
       </c>
       <c r="C210" t="s">
@@ -10362,7 +10362,7 @@
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="37" t="s">
         <v>573</v>
       </c>
       <c r="C211" t="s">
@@ -10385,7 +10385,7 @@
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" s="37" t="s">
         <v>575</v>
       </c>
       <c r="C212" t="s">
@@ -10408,7 +10408,7 @@
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="37" t="s">
         <v>577</v>
       </c>
       <c r="C213" t="s">
@@ -10431,7 +10431,7 @@
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="37" t="s">
         <v>579</v>
       </c>
       <c r="C214" t="s">
@@ -10454,7 +10454,7 @@
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="37" t="s">
         <v>581</v>
       </c>
       <c r="C215" t="s">
@@ -10477,7 +10477,7 @@
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="37" t="s">
         <v>583</v>
       </c>
       <c r="C216" t="s">
@@ -10500,7 +10500,7 @@
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" s="37" t="s">
         <v>585</v>
       </c>
       <c r="C217" t="s">
@@ -10523,7 +10523,7 @@
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="38" t="s">
+      <c r="B218" s="37" t="s">
         <v>587</v>
       </c>
       <c r="C218" t="s">
@@ -10546,7 +10546,7 @@
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="38" t="s">
+      <c r="B219" s="37" t="s">
         <v>589</v>
       </c>
       <c r="C219" t="s">
@@ -10569,7 +10569,7 @@
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="38" t="s">
+      <c r="B220" s="37" t="s">
         <v>591</v>
       </c>
       <c r="C220" t="s">
@@ -10592,7 +10592,7 @@
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="38" t="s">
+      <c r="B221" s="37" t="s">
         <v>593</v>
       </c>
       <c r="C221" t="s">
@@ -10615,7 +10615,7 @@
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="38" t="s">
+      <c r="B222" s="37" t="s">
         <v>595</v>
       </c>
       <c r="C222" t="s">
@@ -10638,7 +10638,7 @@
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="37" t="s">
         <v>597</v>
       </c>
       <c r="C223" t="s">
@@ -10661,7 +10661,7 @@
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="B224" s="37" t="s">
         <v>599</v>
       </c>
       <c r="C224" t="s">
@@ -10684,7 +10684,7 @@
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="38" t="s">
+      <c r="B225" s="37" t="s">
         <v>647</v>
       </c>
       <c r="C225" t="s">
@@ -10707,7 +10707,7 @@
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="B226" s="37" t="s">
         <v>613</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10730,7 +10730,7 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="37" t="s">
         <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10753,7 +10753,7 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10776,7 +10776,7 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="38" t="s">
+      <c r="B229" s="37" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -10799,7 +10799,7 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="37" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
@@ -10822,7 +10822,7 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="38" t="s">
+      <c r="B231" s="37" t="s">
         <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -10845,7 +10845,7 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="B232" s="37" t="s">
         <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
@@ -10868,7 +10868,7 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="38" t="s">
+      <c r="B233" s="37" t="s">
         <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -10891,7 +10891,7 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="37" t="s">
         <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -10914,7 +10914,7 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="37" t="s">
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
@@ -10940,7 +10940,7 @@
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="37" t="s">
         <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -10966,7 +10966,7 @@
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="38" t="s">
+      <c r="B237" s="37" t="s">
         <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -10992,7 +10992,7 @@
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="38" t="s">
+      <c r="B238" s="37" t="s">
         <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -11018,7 +11018,7 @@
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="38" t="s">
+      <c r="B239" s="37" t="s">
         <v>675</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -11044,7 +11044,7 @@
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="38" t="s">
+      <c r="B240" s="37" t="s">
         <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -11070,7 +11070,7 @@
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="38" t="s">
+      <c r="B241" s="37" t="s">
         <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -11096,7 +11096,7 @@
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="38" t="s">
+      <c r="B242" s="37" t="s">
         <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -11122,7 +11122,7 @@
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="38" t="s">
+      <c r="B243" s="37" t="s">
         <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -11148,7 +11148,7 @@
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="37" t="s">
         <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
@@ -11174,7 +11174,7 @@
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="38" t="s">
+      <c r="B245" s="37" t="s">
         <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
@@ -11200,7 +11200,7 @@
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="38" t="s">
+      <c r="B246" s="37" t="s">
         <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -11226,7 +11226,7 @@
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="38" t="s">
+      <c r="B247" s="37" t="s">
         <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
@@ -11252,7 +11252,7 @@
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="38" t="s">
+      <c r="B248" s="37" t="s">
         <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -11278,7 +11278,7 @@
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="38" t="s">
+      <c r="B249" s="37" t="s">
         <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
@@ -11304,7 +11304,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="37" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11330,7 +11330,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="38" t="s">
+      <c r="B251" s="37" t="s">
         <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11356,7 +11356,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="38" t="s">
+      <c r="B252" s="37" t="s">
         <v>730</v>
       </c>
       <c r="C252" t="s">
@@ -11382,7 +11382,7 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="39" t="s">
+      <c r="B253" s="38" t="s">
         <v>947</v>
       </c>
       <c r="C253" s="22" t="s">
@@ -11409,7 +11409,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="38" t="s">
+      <c r="B254" s="37" t="s">
         <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11435,7 +11435,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="38" t="s">
+      <c r="B255" s="37" t="s">
         <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11591,7 +11591,7 @@
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="38" t="s">
+      <c r="B261" s="37" t="s">
         <v>758</v>
       </c>
       <c r="C261" s="8" t="s">
@@ -11983,26 +11983,26 @@
         <v>996</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="45" customFormat="1">
-      <c r="A276" s="42">
+    <row r="276" spans="1:9" s="44" customFormat="1">
+      <c r="A276" s="41">
         <v>275</v>
       </c>
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="44" t="s">
+      <c r="C276" s="43" t="s">
         <v>811</v>
       </c>
-      <c r="E276" s="45">
-        <v>1</v>
-      </c>
-      <c r="F276" s="45">
-        <v>1</v>
-      </c>
-      <c r="G276" s="45">
-        <v>1</v>
-      </c>
-      <c r="I276" s="44" t="s">
+      <c r="E276" s="44">
+        <v>1</v>
+      </c>
+      <c r="F276" s="44">
+        <v>1</v>
+      </c>
+      <c r="G276" s="44">
+        <v>1</v>
+      </c>
+      <c r="I276" s="43" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -12242,7 +12242,7 @@
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="40" t="s">
+      <c r="B286" s="39" t="s">
         <v>845</v>
       </c>
       <c r="C286" s="24" t="s">
@@ -12268,7 +12268,7 @@
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="40" t="s">
+      <c r="B287" s="39" t="s">
         <v>847</v>
       </c>
       <c r="C287" s="24" t="s">
@@ -12290,29 +12290,29 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="45" customFormat="1">
-      <c r="A288" s="42">
+    <row r="288" spans="1:9" s="44" customFormat="1">
+      <c r="A288" s="41">
         <v>287</v>
       </c>
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="44" t="s">
+      <c r="C288" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="44" t="s">
+      <c r="D288" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="E288" s="45">
-        <v>1</v>
-      </c>
-      <c r="F288" s="45">
-        <v>1</v>
-      </c>
-      <c r="G288" s="45">
-        <v>1</v>
-      </c>
-      <c r="I288" s="44" t="s">
+      <c r="E288" s="44">
+        <v>1</v>
+      </c>
+      <c r="F288" s="44">
+        <v>1</v>
+      </c>
+      <c r="G288" s="44">
+        <v>1</v>
+      </c>
+      <c r="I288" s="43" t="s">
         <v>946</v>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="40" t="s">
+      <c r="B289" s="39" t="s">
         <v>854</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -12941,7 +12941,7 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="36" t="s">
+      <c r="B313" s="35" t="s">
         <v>933</v>
       </c>
       <c r="C313" s="14" t="s">
@@ -12967,13 +12967,13 @@
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
+      <c r="B314" s="35" t="s">
         <v>934</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="D314" s="35" t="s">
+      <c r="D314" s="34" t="s">
         <v>941</v>
       </c>
       <c r="E314" s="16">
@@ -13019,13 +13019,13 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="35" t="s">
         <v>945</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="D316" s="35" t="s">
+      <c r="D316" s="34" t="s">
         <v>942</v>
       </c>
       <c r="E316" s="16">
@@ -13041,144 +13041,144 @@
         <v>672</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="45" customFormat="1">
+    <row r="317" spans="1:9" s="44" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
+      <c r="B317" s="42" t="s">
         <v>1019</v>
       </c>
-      <c r="C317" s="44" t="s">
+      <c r="C317" s="43" t="s">
         <v>1016</v>
       </c>
-      <c r="E317" s="45">
-        <v>1</v>
-      </c>
-      <c r="F317" s="45">
-        <v>1</v>
-      </c>
-      <c r="G317" s="45">
-        <v>1</v>
-      </c>
-      <c r="I317" s="44" t="s">
+      <c r="E317" s="44">
+        <v>1</v>
+      </c>
+      <c r="F317" s="44">
+        <v>1</v>
+      </c>
+      <c r="G317" s="44">
+        <v>1</v>
+      </c>
+      <c r="I317" s="43" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="45" customFormat="1">
+    <row r="318" spans="1:9" s="44" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
+      <c r="B318" s="42" t="s">
         <v>1015</v>
       </c>
-      <c r="C318" s="44" t="s">
+      <c r="C318" s="43" t="s">
         <v>1017</v>
       </c>
-      <c r="E318" s="45">
-        <v>1</v>
-      </c>
-      <c r="F318" s="45">
-        <v>1</v>
-      </c>
-      <c r="G318" s="45">
-        <v>1</v>
-      </c>
-      <c r="I318" s="44" t="s">
+      <c r="E318" s="44">
+        <v>1</v>
+      </c>
+      <c r="F318" s="44">
+        <v>1</v>
+      </c>
+      <c r="G318" s="44">
+        <v>1</v>
+      </c>
+      <c r="I318" s="43" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="45" customFormat="1">
+    <row r="319" spans="1:9" s="44" customFormat="1">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
+      <c r="B319" s="42" t="s">
         <v>1020</v>
       </c>
-      <c r="C319" s="44" t="s">
+      <c r="C319" s="43" t="s">
         <v>1010</v>
       </c>
-      <c r="E319" s="45">
-        <v>1</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="I319" s="44" t="s">
+      <c r="E319" s="44">
+        <v>1</v>
+      </c>
+      <c r="F319" s="44">
+        <v>1</v>
+      </c>
+      <c r="G319" s="44">
+        <v>1</v>
+      </c>
+      <c r="I319" s="43" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="45" customFormat="1">
+    <row r="320" spans="1:9" s="44" customFormat="1">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="47" t="s">
+      <c r="B320" s="46" t="s">
         <v>1021</v>
       </c>
-      <c r="C320" s="44" t="s">
+      <c r="C320" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="E320" s="45">
-        <v>1</v>
-      </c>
-      <c r="F320" s="45">
-        <v>1</v>
-      </c>
-      <c r="G320" s="45">
-        <v>1</v>
-      </c>
-      <c r="I320" s="48" t="s">
+      <c r="E320" s="44">
+        <v>1</v>
+      </c>
+      <c r="F320" s="44">
+        <v>1</v>
+      </c>
+      <c r="G320" s="44">
+        <v>1</v>
+      </c>
+      <c r="I320" s="47" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="45" customFormat="1">
+    <row r="321" spans="1:9" s="44" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="49" t="s">
+      <c r="B321" s="48" t="s">
         <v>1022</v>
       </c>
-      <c r="C321" s="44" t="s">
+      <c r="C321" s="43" t="s">
         <v>1013</v>
       </c>
-      <c r="E321" s="45">
-        <v>1</v>
-      </c>
-      <c r="F321" s="45">
-        <v>1</v>
-      </c>
-      <c r="G321" s="45">
-        <v>1</v>
-      </c>
-      <c r="I321" s="48" t="s">
+      <c r="E321" s="44">
+        <v>1</v>
+      </c>
+      <c r="F321" s="44">
+        <v>1</v>
+      </c>
+      <c r="G321" s="44">
+        <v>1</v>
+      </c>
+      <c r="I321" s="47" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="45" customFormat="1">
+    <row r="322" spans="1:9" s="44" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="C322" s="44" t="s">
+      <c r="C322" s="43" t="s">
         <v>1008</v>
       </c>
-      <c r="D322" s="43" t="s">
+      <c r="D322" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="E322" s="45">
-        <v>1</v>
-      </c>
-      <c r="F322" s="45">
-        <v>1</v>
-      </c>
-      <c r="G322" s="45">
-        <v>1</v>
-      </c>
-      <c r="I322" s="44" t="s">
+      <c r="E322" s="44">
+        <v>1</v>
+      </c>
+      <c r="F322" s="44">
+        <v>1</v>
+      </c>
+      <c r="G322" s="44">
+        <v>1</v>
+      </c>
+      <c r="I322" s="43" t="s">
         <v>996</v>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="49" t="s">
         <v>1018</v>
       </c>
       <c r="C323" s="14" t="s">
@@ -13392,7 +13392,7 @@
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="38" t="s">
+      <c r="B331" s="37" t="s">
         <v>997</v>
       </c>
       <c r="C331" s="18" t="s">
@@ -13418,7 +13418,7 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="38" t="s">
+      <c r="B332" s="37" t="s">
         <v>1001</v>
       </c>
       <c r="C332" s="18" t="s">
@@ -13444,7 +13444,7 @@
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="38" t="s">
+      <c r="B333" s="37" t="s">
         <v>1023</v>
       </c>
       <c r="C333" s="18" t="s">
@@ -13470,7 +13470,7 @@
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="38" t="s">
+      <c r="B334" s="37" t="s">
         <v>1027</v>
       </c>
       <c r="C334" s="18" t="s">
@@ -13496,7 +13496,7 @@
       <c r="A335" s="15">
         <v>334</v>
       </c>
-      <c r="B335" s="38" t="s">
+      <c r="B335" s="37" t="s">
         <v>1031</v>
       </c>
       <c r="C335" s="18" t="s">
